--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amna\Desktop\vrptw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9246567B-B4CC-4CD6-940F-7F8DA9F45C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39286128-A78E-4616-B94D-7739B04D1220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="360" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC24064-5233-40A9-9E96-7DBB44589291}"/>
+    <workbookView xWindow="1236" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC24064-5233-40A9-9E96-7DBB44589291}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -346,6 +352,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC8C12-CE16-4ACA-A55F-F09BAB4AFBC7}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,6 +982,13 @@
         <v>4</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
